--- a/classfiers/chain/elm/smote/chain_elm_tanh_smote_results.xlsx
+++ b/classfiers/chain/elm/smote/chain_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5190156599552572</v>
+        <v>0.4898477157360406</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6833578792341679</v>
+        <v>0.657580919931857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5758962479112867</v>
+        <v>0.4608270130910366</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9773755656108597</v>
+        <v>0.9375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6676970633693973</v>
+        <v>0.7169117647058825</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5541750636906346</v>
+        <v>0.5767352764423077</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5193798449612403</v>
+        <v>0.4810126582278481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8375</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6411483253588518</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5289954337899544</v>
+        <v>0.5885964912280701</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5099778270509978</v>
+        <v>0.4936061381074169</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6754772393538914</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5199829124738941</v>
+        <v>0.4946928919965793</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8936170212765957</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8155339805825244</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7738572191697192</v>
+        <v>0.4551820020222447</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5898065213530435</v>
+        <v>0.4089647309856897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9129751131221721</v>
+        <v>0.7875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6966428975797665</v>
+        <v>0.5370048476639956</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5905813754070978</v>
+        <v>0.5152067349560477</v>
       </c>
     </row>
   </sheetData>
